--- a/src/main/resources/dbmodel/model.xlsx
+++ b/src/main/resources/dbmodel/model.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>Сущность (рус)</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>0 - не обработано; 1 - обработано (член семьи может отклонить или принять предложение о вступлении в семью)</t>
+  </si>
+  <si>
+    <t>Инициатор оповещения</t>
+  </si>
+  <si>
+    <t>Статус оповещения</t>
+  </si>
+  <si>
+    <t>0 - не принято; 1 - принято</t>
   </si>
 </sst>
 </file>
@@ -601,9 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1066,26 +1077,42 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="3" t="s">
-        <v>5</v>
+      <c r="B69" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>62</v>
       </c>
     </row>

--- a/src/main/resources/dbmodel/model.xlsx
+++ b/src/main/resources/dbmodel/model.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>Сущность (рус)</t>
   </si>
@@ -610,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,282 +837,287 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>25</v>
+      <c r="B33" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>62</v>
       </c>
     </row>
